--- a/documentation/Test Results.xlsx
+++ b/documentation/Test Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tudor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tudor\Downloads\FinalYearProject\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42185D33-6627-42BC-8FAC-BC092B214E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143350ED-A5AA-467C-98E1-0EB4560BB3DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
   <si>
     <t>Test Plan Summary</t>
   </si>
@@ -294,6 +294,19 @@
   <si>
     <t>Code Coverage</t>
   </si>
+  <si>
+    <t>Input email and password</t>
+  </si>
+  <si>
+    <t>Registration outside the constraints</t>
+  </si>
+  <si>
+    <t>1. Enter email
+2. Enter password</t>
+  </si>
+  <si>
+    <t>Fail to register</t>
+  </si>
 </sst>
 </file>
 
@@ -414,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -456,6 +469,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,13 +937,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>866775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -964,13 +981,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>790575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1008,13 +1025,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2124074</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1266824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1052,13 +1069,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2105025</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>866775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1096,13 +1113,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>847725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1140,13 +1157,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2152649</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>847725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1184,13 +1201,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2105024</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>857249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1228,13 +1245,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2153840</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>819150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1272,13 +1289,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2125807</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>866776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1316,13 +1333,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2085975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>855625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1360,13 +1377,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1638144</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>771440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1404,13 +1421,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>283472</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>85361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1435,7 +1452,51 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16640175"/>
-          <a:ext cx="18219047" cy="2914286"/>
+          <a:ext cx="15059025" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1238249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FF8B6E-F067-4016-A05B-3BC8CD99185F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="6086474"/>
+          <a:ext cx="2143125" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1744,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z965"/>
+  <dimension ref="A1:Z966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1756,8 +1817,8 @@
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1823,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>95.24</v>
+        <v>95.45</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1855,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>4.76</v>
+        <v>4.55</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1887,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2470,22 +2531,22 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="14" t="s">
-        <v>43</v>
+      <c r="D21" s="21" t="s">
+        <v>81</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>56</v>
+      <c r="E21" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>16</v>
@@ -2515,7 +2576,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="14" t="s">
@@ -2525,7 +2586,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>16</v>
@@ -2550,22 +2611,22 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="13" t="s">
-        <v>48</v>
+      <c r="D23" s="14" t="s">
+        <v>43</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>47</v>
+      <c r="E23" s="15" t="s">
+        <v>56</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>65</v>
+      <c r="F23" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>16</v>
@@ -2590,22 +2651,22 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>16</v>
@@ -2635,17 +2696,17 @@
         <v>42</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>52</v>
+      <c r="F25" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>16</v>
@@ -2675,17 +2736,17 @@
         <v>42</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>67</v>
+      <c r="F26" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>16</v>
@@ -2715,17 +2776,17 @@
         <v>42</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="18" t="s">
-        <v>57</v>
+      <c r="C27" s="6"/>
+      <c r="D27" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>55</v>
+      <c r="E27" s="12" t="s">
+        <v>47</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>68</v>
+      <c r="F27" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>16</v>
@@ -2755,17 +2816,17 @@
         <v>42</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>59</v>
+      <c r="E28" s="13" t="s">
+        <v>55</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>69</v>
+      <c r="F28" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>16</v>
@@ -2795,17 +2856,17 @@
         <v>42</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>61</v>
+      <c r="E29" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>16</v>
@@ -2835,17 +2896,17 @@
         <v>42</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>47</v>
+      <c r="E30" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>16</v>
@@ -2872,23 +2933,23 @@
     </row>
     <row r="31" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="12" t="s">
-        <v>74</v>
+      <c r="D31" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>75</v>
+      <c r="G31" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2910,16 +2971,26 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2940,14 +3011,16 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+    <row r="33" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -3001,7 +3074,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3029,7 +3102,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3052,7 +3125,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -29064,14 +29137,42 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
+    <row r="966" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A966" s="2"/>
+      <c r="B966" s="2"/>
+      <c r="C966" s="2"/>
+      <c r="D966" s="2"/>
+      <c r="E966" s="2"/>
+      <c r="F966" s="2"/>
+      <c r="G966" s="2"/>
+      <c r="H966" s="2"/>
+      <c r="I966" s="2"/>
+      <c r="J966" s="2"/>
+      <c r="K966" s="2"/>
+      <c r="L966" s="2"/>
+      <c r="M966" s="2"/>
+      <c r="N966" s="2"/>
+      <c r="O966" s="2"/>
+      <c r="P966" s="2"/>
+      <c r="Q966" s="2"/>
+      <c r="R966" s="2"/>
+      <c r="S966" s="2"/>
+      <c r="T966" s="2"/>
+      <c r="U966" s="2"/>
+      <c r="V966" s="2"/>
+      <c r="W966" s="2"/>
+      <c r="X966" s="2"/>
+      <c r="Y966" s="2"/>
+      <c r="Z966" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="A11:A32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A11:A33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Unit Test,Security Test,Code Coverage,Scalability Test,User Acceptance Test"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
